--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/UtilityCreationMay27/TestData/testScirptdata.xlsx
+++ b/UtilityCreationMay27/TestData/testScirptdata.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="120">
   <si>
     <t>TestCaseID</t>
   </si>
